--- a/biology/Zoologie/Henry_James_Clark/Henry_James_Clark.xlsx
+++ b/biology/Zoologie/Henry_James_Clark/Henry_James_Clark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry James Clark est un zoologiste et un botaniste américain, né le 22 juin 1826 à Easton dans le Massachusetts et mort le 1er juillet 1873 à Amherst.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’Henry Porter et d’Abigail née Orton. Il fait ses études à l’université de New York et obtient son Bachelor of Sciences à Harvard en 1854. Il se marie, cette année-là, à Mary Young Holbrook dont il aura huit enfants.
 De 1854 à 1865, il est l’assistant personnel de Louis Agassiz (1807-1873). De 1860 à 1865, il est professeur assistant de zoologie à Harvard, puis, de 1866 à 1869, il enseigne la botanique, la zoologie et la géologie au State College de Pennsylvanie. Puis, il obtient un poste à l’université du Kentucky, fonction qu’il occupe jusqu’en 1872. Enfin, il occupe alors un poste à l’École supérieure d’agriculture du Massachusetts.
